--- a/src/Skull-projections/Original Datasets/103 supraorb.xlsx
+++ b/src/Skull-projections/Original Datasets/103 supraorb.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasvv/Desktop/onderzoek lore/python files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/src/Skull-projections/Original Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{F86481C8-5D8B-1949-92CD-FCBF548019FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7487100F-DAF0-0C48-8CFF-1E811A56523C}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="460" windowWidth="17780" windowHeight="15440"/>
+    <workbookView xWindow="10140" yWindow="1100" windowWidth="24420" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,29 +275,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,6 +307,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -635,10 +637,10 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -667,10 +669,10 @@
       <c r="E2">
         <v>292.87299999999999</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2">
@@ -699,10 +701,10 @@
       <c r="E3">
         <v>297.1866</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3">
@@ -731,10 +733,10 @@
       <c r="E4">
         <v>326.72269999999997</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4">
@@ -748,10 +750,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5">
@@ -763,10 +765,10 @@
       <c r="E5">
         <v>309.3852</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>3</v>
       </c>
       <c r="H5">
@@ -780,42 +782,42 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>193.63200000000001</v>
+        <v>190.63200000000001</v>
       </c>
       <c r="D6">
-        <v>-280.92180000000002</v>
+        <v>-270.92180000000002</v>
       </c>
       <c r="E6">
-        <v>298.38619999999997</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>308.38619999999997</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6">
         <v>165.6944</v>
       </c>
       <c r="I6">
-        <v>-222.78469999999999</v>
+        <v>-230.78469999999999</v>
       </c>
       <c r="J6">
         <v>303.53489999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>5</v>
       </c>
       <c r="C7">
@@ -827,10 +829,10 @@
       <c r="E7">
         <v>313.38260000000002</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>5</v>
       </c>
       <c r="H7">
@@ -844,10 +846,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
       <c r="C8">
@@ -859,10 +861,10 @@
       <c r="E8">
         <v>306.39460000000003</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
       <c r="H8">
@@ -876,10 +878,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
       <c r="C9">
@@ -891,10 +893,10 @@
       <c r="E9">
         <v>301.58319999999998</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
       <c r="H9">
@@ -908,10 +910,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>5</v>
       </c>
       <c r="C10">
@@ -923,10 +925,10 @@
       <c r="E10">
         <v>296.51510000000002</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
       <c r="H10">
@@ -940,42 +942,42 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>193.63200000000001</v>
+        <v>190.63200000000001</v>
       </c>
       <c r="D11">
-        <v>-280.92180000000002</v>
+        <v>-270.92180000000002</v>
       </c>
       <c r="E11">
-        <v>298.38619999999997</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>308.38619999999997</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>6</v>
       </c>
       <c r="H11">
         <v>165.6944</v>
       </c>
       <c r="I11">
-        <v>-222.78469999999999</v>
+        <v>-230.78469999999999</v>
       </c>
       <c r="J11">
         <v>303.53489999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
       <c r="C12">
@@ -987,10 +989,10 @@
       <c r="E12">
         <v>307.755</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>6</v>
       </c>
       <c r="H12">
@@ -1004,10 +1006,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>6</v>
       </c>
       <c r="C13">
@@ -1019,10 +1021,10 @@
       <c r="E13">
         <v>299.51220000000001</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>6</v>
       </c>
       <c r="H13">
@@ -1036,10 +1038,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>6</v>
       </c>
       <c r="C14">
@@ -1051,10 +1053,10 @@
       <c r="E14">
         <v>293.43259999999998</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>6</v>
       </c>
       <c r="H14">
@@ -1068,10 +1070,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>6</v>
       </c>
       <c r="C15">
@@ -1083,10 +1085,10 @@
       <c r="E15">
         <v>277.90769999999998</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>6</v>
       </c>
       <c r="H15">
@@ -1100,42 +1102,42 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>7</v>
       </c>
       <c r="C16">
-        <v>193.63200000000001</v>
+        <v>190.63200000000001</v>
       </c>
       <c r="D16">
-        <v>-280.92180000000002</v>
+        <v>-270.92180000000002</v>
       </c>
       <c r="E16">
-        <v>298.38619999999997</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>308.38619999999997</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>7</v>
       </c>
       <c r="H16">
         <v>165.6944</v>
       </c>
       <c r="I16">
-        <v>-222.78469999999999</v>
+        <v>-230.78469999999999</v>
       </c>
       <c r="J16">
         <v>303.53489999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>7</v>
       </c>
       <c r="C17">
@@ -1147,10 +1149,10 @@
       <c r="E17">
         <v>289.84730000000002</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>7</v>
       </c>
       <c r="H17">
@@ -1164,10 +1166,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="6">
         <v>7</v>
       </c>
       <c r="C18">
@@ -1179,10 +1181,10 @@
       <c r="E18">
         <v>272.40789999999998</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="6">
         <v>7</v>
       </c>
       <c r="H18">
@@ -1196,10 +1198,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="6">
         <v>7</v>
       </c>
       <c r="C19">
@@ -1211,10 +1213,10 @@
       <c r="E19">
         <v>247.733</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="6">
         <v>7</v>
       </c>
       <c r="H19">
@@ -1228,10 +1230,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="6">
         <v>7</v>
       </c>
       <c r="C20">
@@ -1243,10 +1245,10 @@
       <c r="E20">
         <v>210.77379999999999</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="6">
         <v>7</v>
       </c>
       <c r="H20">
@@ -1260,10 +1262,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>8</v>
       </c>
       <c r="C21">
@@ -1275,10 +1277,10 @@
       <c r="E21">
         <v>303.65719999999999</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>8</v>
       </c>
       <c r="H21">
@@ -1292,10 +1294,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>8</v>
       </c>
       <c r="C22">
@@ -1307,10 +1309,10 @@
       <c r="E22">
         <v>316.07819999999998</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>8</v>
       </c>
       <c r="H22">
@@ -1324,10 +1326,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23">
@@ -1339,10 +1341,10 @@
       <c r="E23">
         <v>312.66739999999999</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>8</v>
       </c>
       <c r="H23">
@@ -1356,10 +1358,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>8</v>
       </c>
       <c r="C24">
@@ -1371,10 +1373,10 @@
       <c r="E24">
         <v>315.97370000000001</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>8</v>
       </c>
       <c r="H24">
@@ -1388,10 +1390,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>8</v>
       </c>
       <c r="C25">
@@ -1403,10 +1405,10 @@
       <c r="E25">
         <v>308.36559999999997</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>8</v>
       </c>
       <c r="H25">
@@ -1420,10 +1422,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>8</v>
       </c>
       <c r="C26">
@@ -1435,10 +1437,10 @@
       <c r="E26">
         <v>301.28320000000002</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>8</v>
       </c>
       <c r="H26">
@@ -1452,10 +1454,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>9</v>
       </c>
       <c r="C27">
@@ -1467,10 +1469,10 @@
       <c r="E27">
         <v>310.85700000000003</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>9</v>
       </c>
       <c r="H27">
@@ -1484,16 +1486,16 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>9</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>9</v>
       </c>
       <c r="H28">
@@ -1507,24 +1509,24 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>9</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>10</v>
       </c>
       <c r="C30">
@@ -1536,10 +1538,10 @@
       <c r="E30">
         <v>317.92970000000003</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>10</v>
       </c>
       <c r="H30">
@@ -1553,10 +1555,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>10</v>
       </c>
       <c r="C31">
@@ -1568,10 +1570,10 @@
       <c r="E31">
         <v>303.30930000000001</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="9">
         <v>10</v>
       </c>
       <c r="H31">
@@ -1585,10 +1587,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>10</v>
       </c>
       <c r="C32">
@@ -1600,10 +1602,10 @@
       <c r="E32">
         <v>291.96170000000001</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="9">
         <v>10</v>
       </c>
       <c r="H32">
@@ -1617,10 +1619,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>10</v>
       </c>
       <c r="C33">
@@ -1632,10 +1634,10 @@
       <c r="E33">
         <v>285.13830000000002</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="9">
         <v>10</v>
       </c>
       <c r="H33">
@@ -1649,10 +1651,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>10</v>
       </c>
       <c r="C34">
@@ -1664,10 +1666,10 @@
       <c r="E34">
         <v>272.96300000000002</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="9">
         <v>10</v>
       </c>
       <c r="H34">
@@ -1681,10 +1683,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>10</v>
       </c>
       <c r="C35">
@@ -1696,10 +1698,10 @@
       <c r="E35">
         <v>270.47370000000001</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="9">
         <v>10</v>
       </c>
       <c r="H35">
@@ -1713,10 +1715,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>10</v>
       </c>
       <c r="C36">
@@ -1728,10 +1730,10 @@
       <c r="E36">
         <v>265.51060000000001</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <v>10</v>
       </c>
       <c r="H36">
@@ -1745,10 +1747,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>10</v>
       </c>
       <c r="C37">
@@ -1760,10 +1762,10 @@
       <c r="E37">
         <v>283.30669999999998</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="9">
         <v>10</v>
       </c>
       <c r="H37">
@@ -1777,10 +1779,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <v>10</v>
       </c>
       <c r="C38">
@@ -1792,10 +1794,10 @@
       <c r="E38">
         <v>302.71350000000001</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="6">
         <v>10</v>
       </c>
       <c r="H38">
